--- a/Interface 문서/고객용_인터페이스설계서_V0.5_20200319.xlsx
+++ b/Interface 문서/고객용_인터페이스설계서_V0.5_20200319.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="749" firstSheet="20" activeTab="23"/>
+    <workbookView minimized="1" xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="749" firstSheet="20" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="겉표지" sheetId="2" r:id="rId1"/>
